--- a/biology/Zoologie/John_Nathan_Cobb/John_Nathan_Cobb.xlsx
+++ b/biology/Zoologie/John_Nathan_Cobb/John_Nathan_Cobb.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Nathan Cobb est un ichtyologiste américain, né le 20 février 1868 à Oxford (New Jersey) et mort le 13 janvier 1930 à La Jolla (Californie).
 Cobb commence sa vie comme aide-imprimeur dans un journal, il travaille aussi comme sténographe et employé, comme journaliste, comme agent de terrain pour la commission des pêches de l’union (U.S. Fish Commission puis pour l’U.S. Bureau of Fisheries), comme éditeur dans un journal sur la pêche professionnelle et commerciale de la côte du nord-ouest des États-Unis d'Amérique et comme patron de compagnie de pêche. Enfin, il est le fondateur et le doyen de l’école des pêches de l’université de Washington de 1919 à 1926, le premier établissement du genre dans le pays. Cobb est, sans doute, le dernier autodidacte à prendre la direction d’un établissement d’enseignement supérieur aux États-Unis. L’orientation qu’il donne à cet établissement témoigne de sa solide expérience pratique, mais si l’administration de l’université soutient son action, celle-ci changera d’avis au fil du temps et dissoudra l’école peu de temps après la mort de Cobb en 1930. Cobb est notamment l’auteur de statistiques précises sur les pêches.
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cobb est le fils de l’ingénieur ferroviaire Samuel Spencer Cobb (1842–1921) et Louise Catherine (née Richard) (1845?–1918), d’origine française. La famille compte au moins douze enfants et John Cobb doit interrompre très tôt ses études pour travailler. La famille s’installe en Pennsylvanie au début des années 1880. En 1884, Cobb entre au Carbondale Reader. Il exercera ensuite des emplois variés comme sténographe et dactylographe dans diverses compagnies : chemin de fer, cabinet juridique, industrie, construction de navires, etc.
 En 1895, il passe un concours pour la fonction publique comme sténographe et dactylographe pour un salaire annuel de 720 $. Il entre au service de la statistique au bureau des pêches de Washington. L’année suivante, il est promu agent de terrain pour un salaire de 1 000 $ avec la charge de récolter des statistiques sur les pêches industrielles, cette fonction impliquant de nombreux voyages sur toute la côte est du pays. Jusqu’en 1911, il réalise environ dix-huit publications pour la commission des pêches.
@@ -548,7 +562,9 @@
           <t>L’école des pêches</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hugh McCormick Smith évoque, lors du congrès annuel des pêcheries industrielles de 1913, le besoin de disposer d’une institution nationale de formation pour les pêcheurs. Smith estime en outre que la ville idéale pour une telle école est Seattle. Il se met en relation avec le directeur de l’université de Washington, Henry Landes (1867–1936). Celui-ci reconnaît le besoin d’une telle formation. Le directeur de la faculté de zoologie, Trevor Charles Digby Kincaid (1872–1970), remet un rapport de dix pages sur un projet d’école sur les pêches et signale que le seul établissement de ce type est l’Institut impérial des pêches du Japon. Le projet reçoit le soutien de Pacific Fisherman. Mais la Première Guerre mondiale retarde ce projet.
 Début 1917, Cobb obtient un travail dans la plus grande industrie des pêches de l’Alaska, l’Alaska Packers Association (APA), pour un salaire double de celui de Pacific Fisherman. Il garde ce poste jusqu’en janvier 1919, date à laquelle il est appelé par l’université de Washington de Seattle. La ville connaît à cette époque une période de grande croissance (sa population passant de 81 000 habitants en 1900 à 315 000 en 1920). L’industrie des pêches (comme l’industrie forestière) a une grande importance pour l’État de Washington en ce début de siècle, la ville de Seattle comptant un grand nombre de conserveries de poissons. L’université connaît une croissance aussi rapide : ses effectifs passent de 33 pour 700 étudiants en 1903 à 194 pour 3 300 étudiants en 1913.
@@ -587,7 +603,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>J. Richard Dunn (2003). John Nathan Cobb (1868–1930): Founding Director of the College of Fisheries, University of Washington, Seattle, Marine Fisheries Review, 65 (3) : 1-24.</t>
         </is>
